--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT University\DPI202\github\StudentManagementDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6289FA8C-0C0E-4E90-89C0-0612DEA37F9D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5753F7D-290E-43CF-B893-8C0D3F93B633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
+  <si>
+    <t>họ và tên</t>
+  </si>
+  <si>
+    <t>mã số sinh viên</t>
+  </si>
+  <si>
+    <t>giới tính</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>cơ sở đào tạo</t>
+  </si>
+  <si>
+    <t>chuyên ngành</t>
+  </si>
   <si>
     <t xml:space="preserve">Bach Bao Yen </t>
   </si>
@@ -44,81 +63,63 @@
     <t>CS182215</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>yenbbcs182215@fpt.edu.vn</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Kỳ Anh Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se180117 </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>minhnkase173338@fpt.edu.vn</t>
+  </si>
+  <si>
     <t>HCM</t>
   </si>
   <si>
-    <t>cơ sở đào tạo</t>
-  </si>
-  <si>
-    <t>chuyên ngành</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
+    <t xml:space="preserve">Vo Lam Son </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se170119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonvlse170119@fpt.edu.vn </t>
+  </si>
+  <si>
     <t xml:space="preserve">HCM </t>
   </si>
   <si>
+    <t xml:space="preserve">Chauvreau Phuong  </t>
+  </si>
+  <si>
+    <t>ca181277</t>
+  </si>
+  <si>
+    <t>phuongcca181277@fpt.edu.vn</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
     <t>Bui Truong Thinh</t>
   </si>
   <si>
-    <t>mã số sinh viên</t>
-  </si>
-  <si>
-    <t>giới tính</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>họ và tên</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>minhnkase173338@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>phuongcca181277@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se180117 </t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se170119 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonvlse170119@fpt.edu.vn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vo Lam Son </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Kỳ Anh Minh </t>
-  </si>
-  <si>
-    <t>ca181277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauvreau Phuong  </t>
-  </si>
-  <si>
     <t>ca180528</t>
   </si>
   <si>
@@ -128,6 +129,9 @@
     <t>Bui Xuan My</t>
   </si>
   <si>
+    <t>ce180953</t>
+  </si>
+  <si>
     <t>mybxce180953@fpt.edu.vn</t>
   </si>
   <si>
@@ -137,69 +141,66 @@
     <t>Cao Hoang Quy</t>
   </si>
   <si>
-    <t>ce180953</t>
+    <t>cs180845</t>
   </si>
   <si>
     <t>quychcs180845@fpt.edu.vn</t>
   </si>
   <si>
-    <t>cs180845</t>
-  </si>
-  <si>
     <t>Chung Ngoc Quynh</t>
   </si>
   <si>
+    <t>ce180591</t>
+  </si>
+  <si>
     <t>quynhcnce180591@fpt.edu.vn</t>
   </si>
   <si>
-    <t>ce180591</t>
-  </si>
-  <si>
     <t>Dam Khanh Linh</t>
   </si>
   <si>
+    <t>ca181738</t>
+  </si>
+  <si>
     <t>linhdkca181738@fpt.edu.vn</t>
   </si>
   <si>
-    <t>ca181738</t>
-  </si>
-  <si>
     <t>Dang Hao</t>
   </si>
   <si>
+    <t>cs181917</t>
+  </si>
+  <si>
     <t>haodcs181917@fpt.edu.vn</t>
   </si>
   <si>
-    <t>cs181917</t>
-  </si>
-  <si>
     <t>Huynh Hoang Ty</t>
   </si>
   <si>
+    <t>ce180191</t>
+  </si>
+  <si>
     <t>tyhhce180191@fpt.edu.vn</t>
   </si>
   <si>
-    <t>ce180191</t>
-  </si>
-  <si>
     <t>Ho Dao Ty</t>
   </si>
   <si>
+    <t>se183975</t>
+  </si>
+  <si>
     <t>tyhdse183975@fpt.edu.vn</t>
   </si>
   <si>
-    <t>se183975</t>
-  </si>
-  <si>
     <t>Ha Gia Manh </t>
   </si>
   <si>
+    <t>he176443</t>
+  </si>
+  <si>
     <t>manhhghe176443@fpt.edu.vn</t>
   </si>
   <si>
-    <t>he176443</t>
-  </si>
-  <si>
     <t>HL</t>
   </si>
   <si>
@@ -209,268 +210,283 @@
     <t>Dao Quang Nguyen</t>
   </si>
   <si>
+    <t>he176610</t>
+  </si>
+  <si>
     <t>nguyendqhe176610@fpt.edu.vn</t>
   </si>
   <si>
-    <t>he176610</t>
-  </si>
-  <si>
     <t>Phan Duy Anh</t>
   </si>
   <si>
+    <t>CE190127</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>AnhPD.CE190127@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Thúy Ái</t>
   </si>
   <si>
+    <t>CS190640</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>AiLT.CS190640@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Thúy Thùy Linh</t>
   </si>
   <si>
+    <t>CE190669</t>
+  </si>
+  <si>
+    <t>LinhNTT.CE190669@gmail.com</t>
+  </si>
+  <si>
     <t>Lâm Quốc Minh</t>
   </si>
   <si>
+    <t>CE190585</t>
+  </si>
+  <si>
+    <t>MinhLQ.CE190585@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Như Ngọc</t>
   </si>
   <si>
+    <t>CS190676</t>
+  </si>
+  <si>
+    <t>NgocNTN.CS190676@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Kim Nhã</t>
   </si>
   <si>
+    <t>CE190530</t>
+  </si>
+  <si>
+    <t>NhaNTK.CE190530@gmail.com</t>
+  </si>
+  <si>
     <t>Lâm Triệu Phú</t>
   </si>
   <si>
+    <t>CE190365</t>
+  </si>
+  <si>
+    <t>PhuLT.CE190365@gmail.com</t>
+  </si>
+  <si>
     <t>Thiều Trần Quốc Quý</t>
   </si>
   <si>
+    <t>CE190497</t>
+  </si>
+  <si>
+    <t>QuyTTQ.CE190497@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Trúc Quỳnh</t>
   </si>
   <si>
+    <t>CE190172</t>
+  </si>
+  <si>
+    <t>QuynhNT.CE190172@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hoài Thương</t>
   </si>
   <si>
+    <t>CE190185</t>
+  </si>
+  <si>
+    <t>ThuongNTH.CE190185@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Mộng Trúc</t>
   </si>
   <si>
+    <t>CA190426</t>
+  </si>
+  <si>
+    <t>TrucNTM.CA190426@gmail.com</t>
+  </si>
+  <si>
     <t>Hồ Phúc Vinh</t>
   </si>
   <si>
+    <t>CA190731</t>
+  </si>
+  <si>
+    <t>VinhHP.CA190731@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Hoàng Xuân Yến</t>
   </si>
   <si>
+    <t>CA190150</t>
+  </si>
+  <si>
+    <t>YenNHX.CA190150@gmail.com</t>
+  </si>
+  <si>
     <t>Trương Thành Công</t>
   </si>
   <si>
+    <t>CS190989</t>
+  </si>
+  <si>
+    <t>CongTT.CS190989@gmail.com</t>
+  </si>
+  <si>
     <t>Trần Trúc Mai Đào</t>
   </si>
   <si>
+    <t>CS190433</t>
+  </si>
+  <si>
+    <t>DaoTTM.CS190433@gmail.com</t>
+  </si>
+  <si>
     <t>Huỳnh Nhật Huy</t>
   </si>
   <si>
+    <t>CS191116</t>
+  </si>
+  <si>
+    <t>HuyHN.CS191116@gmail.com</t>
+  </si>
+  <si>
     <t>Võ Đăng Huy</t>
   </si>
   <si>
+    <t>CS190354</t>
+  </si>
+  <si>
+    <t>HuyVD.CS190354@gmail.com</t>
+  </si>
+  <si>
     <t>Trần Đăng Khoa</t>
   </si>
   <si>
+    <t>CE191209</t>
+  </si>
+  <si>
+    <t>KhoaTD.CE191209@gmail.com</t>
+  </si>
+  <si>
     <t>Huỳnh Tú Kiều</t>
   </si>
   <si>
+    <t>CS191269</t>
+  </si>
+  <si>
+    <t>KieuHT.CS191269@gmail.com</t>
+  </si>
+  <si>
     <t>Châu Triều Phát</t>
   </si>
   <si>
+    <t>CE191109</t>
+  </si>
+  <si>
+    <t>PhatCT.CE191109@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Phú Quý</t>
   </si>
   <si>
+    <t>CE191111</t>
+  </si>
+  <si>
+    <t>QuyNP.CE191111@gmail.com</t>
+  </si>
+  <si>
     <t>Tạ Ngọc Trân</t>
   </si>
   <si>
+    <t>CS191278</t>
+  </si>
+  <si>
+    <t>TranTN.CS191278@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Ngô Hồng Ân</t>
   </si>
   <si>
+    <t>CS191563</t>
+  </si>
+  <si>
+    <t>AnLNH.CS191563@gmail.com</t>
+  </si>
+  <si>
     <t>Huỳnh Ngọc Trúc My</t>
   </si>
   <si>
+    <t>CA191546</t>
+  </si>
+  <si>
+    <t>MyHNT.CA191546@gmail.com</t>
+  </si>
+  <si>
     <t>Lý Phong Nhã</t>
   </si>
   <si>
+    <t>CE191118</t>
+  </si>
+  <si>
+    <t>NhaLP.CE191118@gmail.com</t>
+  </si>
+  <si>
     <t>Đỗ Thị Lâm Oanh</t>
   </si>
   <si>
+    <t>CS191643</t>
+  </si>
+  <si>
+    <t>OanhDTL.CS191643@gmail.com</t>
+  </si>
+  <si>
     <t>Dương Thị Kim Ngân</t>
   </si>
   <si>
+    <t>CS191700</t>
+  </si>
+  <si>
+    <t>NganDTK.CS191700@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Huỳnh Thanh Phong</t>
   </si>
   <si>
-    <t>CE190127</t>
-  </si>
-  <si>
-    <t>CS190640</t>
-  </si>
-  <si>
-    <t>CE190669</t>
-  </si>
-  <si>
-    <t>CE190585</t>
-  </si>
-  <si>
-    <t>CS190676</t>
-  </si>
-  <si>
-    <t>CE190530</t>
-  </si>
-  <si>
-    <t>CE190365</t>
-  </si>
-  <si>
-    <t>CE190497</t>
-  </si>
-  <si>
-    <t>CE190172</t>
-  </si>
-  <si>
-    <t>CE190185</t>
-  </si>
-  <si>
-    <t>CA190426</t>
-  </si>
-  <si>
-    <t>CA190731</t>
-  </si>
-  <si>
-    <t>CA190150</t>
-  </si>
-  <si>
-    <t>CS190989</t>
-  </si>
-  <si>
-    <t>CS190433</t>
-  </si>
-  <si>
-    <t>CS191116</t>
-  </si>
-  <si>
-    <t>CS190354</t>
-  </si>
-  <si>
-    <t>CE191209</t>
-  </si>
-  <si>
-    <t>CS191269</t>
-  </si>
-  <si>
-    <t>CE191109</t>
-  </si>
-  <si>
-    <t>CE191111</t>
-  </si>
-  <si>
-    <t>CS191278</t>
-  </si>
-  <si>
-    <t>CS191563</t>
-  </si>
-  <si>
-    <t>CA191546</t>
-  </si>
-  <si>
-    <t>CE191118</t>
-  </si>
-  <si>
-    <t>CS191643</t>
-  </si>
-  <si>
-    <t>CS191700</t>
-  </si>
-  <si>
     <t>CS191306</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>AnhPD.CE190127@gmail.com</t>
-  </si>
-  <si>
-    <t>AiLT.CS190640@gmail.com</t>
-  </si>
-  <si>
-    <t>LinhNTT.CE190669@gmail.com</t>
-  </si>
-  <si>
-    <t>MinhLQ.CE190585@gmail.com</t>
-  </si>
-  <si>
-    <t>NgocNTN.CS190676@gmail.com</t>
-  </si>
-  <si>
-    <t>NhaNTK.CE190530@gmail.com</t>
-  </si>
-  <si>
-    <t>PhuLT.CE190365@gmail.com</t>
-  </si>
-  <si>
-    <t>QuyTTQ.CE190497@gmail.com</t>
-  </si>
-  <si>
-    <t>QuynhNT.CE190172@gmail.com</t>
-  </si>
-  <si>
-    <t>ThuongNTH.CE190185@gmail.com</t>
-  </si>
-  <si>
-    <t>TrucNTM.CA190426@gmail.com</t>
-  </si>
-  <si>
-    <t>VinhHP.CA190731@gmail.com</t>
-  </si>
-  <si>
-    <t>YenNHX.CA190150@gmail.com</t>
-  </si>
-  <si>
-    <t>CongTT.CS190989@gmail.com</t>
-  </si>
-  <si>
-    <t>DaoTTM.CS190433@gmail.com</t>
-  </si>
-  <si>
-    <t>HuyHN.CS191116@gmail.com</t>
-  </si>
-  <si>
-    <t>HuyVD.CS190354@gmail.com</t>
-  </si>
-  <si>
-    <t>KhoaTD.CE191209@gmail.com</t>
-  </si>
-  <si>
-    <t>KieuHT.CS191269@gmail.com</t>
-  </si>
-  <si>
-    <t>PhatCT.CE191109@gmail.com</t>
-  </si>
-  <si>
-    <t>QuyNP.CE191111@gmail.com</t>
-  </si>
-  <si>
-    <t>TranTN.CS191278@gmail.com</t>
-  </si>
-  <si>
-    <t>AnLNH.CS191563@gmail.com</t>
-  </si>
-  <si>
-    <t>MyHNT.CA191546@gmail.com</t>
-  </si>
-  <si>
-    <t>NhaLP.CE191118@gmail.com</t>
-  </si>
-  <si>
-    <t>OanhDTL.CS191643@gmail.com</t>
-  </si>
-  <si>
-    <t>NganDTK.CS191700@gmail.com</t>
-  </si>
-  <si>
     <t>PhongLHT.CS191306@gmail.com</t>
+  </si>
+  <si>
+    <t>Bach Ngoc Nhu</t>
+  </si>
+  <si>
+    <t>ca172063</t>
+  </si>
+  <si>
+    <t>nhubnca172063@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Mã Cơ Sở</t>
+  </si>
+  <si>
+    <t>Tên Cơ sở</t>
   </si>
 </sst>
 </file>
@@ -893,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2873B9-7416-42AE-B6F0-05C25F416B1B}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -912,16 +928,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -932,102 +948,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.75">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.75">
@@ -1035,39 +1051,39 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.75">
@@ -1075,19 +1091,19 @@
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21.75">
@@ -1095,19 +1111,19 @@
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75">
@@ -1115,19 +1131,19 @@
         <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.75">
@@ -1135,19 +1151,19 @@
         <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.75">
@@ -1155,19 +1171,19 @@
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.75">
@@ -1175,13 +1191,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>54</v>
@@ -1195,13 +1211,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -1215,559 +1231,573 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1818,4 +1848,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId43"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E444A-FD5B-4B73-965F-1E1C48D0623E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT University\DPI202\github\StudentManagementDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptuniversity-my.sharepoint.com/personal/anhlnce181767_fpt_edu_vn/Documents/FPT University/2024/SP24/SE1804/DBI202/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6289FA8C-0C0E-4E90-89C0-0612DEA37F9D}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301C1297-33C4-42D8-96CA-329D44DCFE69}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5753F7D-290E-43CF-B893-8C0D3F93B633}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="227">
   <si>
     <t>họ và tên</t>
   </si>
@@ -222,9 +222,6 @@
     <t>CE190127</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>AnhPD.CE190127@gmail.com</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>CS190640</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>AiLT.CS190640@gmail.com</t>
   </si>
   <si>
@@ -487,13 +481,265 @@
   </si>
   <si>
     <t>Tên Cơ sở</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Hotline</t>
+  </si>
+  <si>
+    <t>FUHN</t>
+  </si>
+  <si>
+    <t>An Duc Nhat</t>
+  </si>
+  <si>
+    <t>FUQN</t>
+  </si>
+  <si>
+    <t>FUDN</t>
+  </si>
+  <si>
+    <t>FUHCM</t>
+  </si>
+  <si>
+    <t>nhatadhe180033@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>FUCT</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Quy Nhơn</t>
+  </si>
+  <si>
+    <t>Hòa Lạc</t>
+  </si>
+  <si>
+    <t>Hoa Lac Hi-Tech Park, Km29 Thang Long Avenue, Thach That District, Hanoi</t>
+  </si>
+  <si>
+    <t>024 7300 6800</t>
+  </si>
+  <si>
+    <t>An Phu Thinh new urban area (in Dong Da ward and Nhon Binh ward)</t>
+  </si>
+  <si>
+    <t>he180033</t>
+  </si>
+  <si>
+    <t>(0256) 7300 999</t>
+  </si>
+  <si>
+    <t>FPT Da Nang urban area, Hoa Hai Ward, Ngu Hanh Son District, Da Nang City</t>
+  </si>
+  <si>
+    <t>(0236) 730 0999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. 5 Nguyen Gia Thieu, District 3, Ho Chi Minh City (FSB Institute of Management and Technology facility)</t>
+  </si>
+  <si>
+    <t>(028) 7300 5588</t>
+  </si>
+  <si>
+    <t>Rau Ram Bridge, Area 6, extended Nguyen Van Cu, An Binh ward, Ninh Kieu district, city. Can Tho</t>
+  </si>
+  <si>
+    <t>(0292) 7773636</t>
+  </si>
+  <si>
+    <t>An Ha Yen Linh </t>
+  </si>
+  <si>
+    <t>linhahyhe186807@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>he186807</t>
+  </si>
+  <si>
+    <t>Bach Chau Loan</t>
+  </si>
+  <si>
+    <t>loanbche182593@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Cở sở đào tạo</t>
+  </si>
+  <si>
+    <t>he182593</t>
+  </si>
+  <si>
+    <t>Chương trình đạo tào</t>
+  </si>
+  <si>
+    <t>Bach Hai Yen</t>
+  </si>
+  <si>
+    <t>yenbhhs180462@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Mã chương trình</t>
+  </si>
+  <si>
+    <t>hs180462</t>
+  </si>
+  <si>
+    <t>Tên chương trình</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Bach Van Duc</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>ducbvhe181874@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Bachelor Program of Information Technology</t>
+  </si>
+  <si>
+    <t>he181874</t>
+  </si>
+  <si>
+    <t>General objective: Training Bachelor of Information Technology, Digital Art &amp; Design specialty with personality and capacity to meet the needs of society, mastering professional knowledge and practice, being able to organize, implement and promote the creativity in jobs related to the trained specialty, being able to work in the international environment, and laying the foundation to pursue further study and research in Digital Art &amp; Design.</t>
+  </si>
+  <si>
+    <t>Bui Anh Linh</t>
+  </si>
+  <si>
+    <t>linhbahe187296@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Bachelor of English Studies</t>
+  </si>
+  <si>
+    <t>The bachelor's program in English Language aims to train good quality bachelors: with qualities and abilities to meet the actual needs of society; Able to use English fluently with a minimum level equivalent to level 5 according to The Vietnam Six-level of Foreign Language Proficiency Framework or level C1 according to the Common European Framework of Reference for Languages (CEFR) and Chinese with the minimum level is equivalent to HSK4 according to the six-level Chinese Proficiency Test or B2 level according to the Common European Framework of Reference for Languages (CEFR). Students have a strong self-study ability, are capable of self-training and accumulating professional knowledge, qualities, and skills to participate in the study, research at higher levels, or become experts in the field of expertise, flexible working in a domestic and international environment. Depending on the chosen major, students will be able to use Chinese as a second foreign language at a basic or intermediate level; have basic or advanced professional knowledge of languages and cultures; as well as the knowledge and skills necessary to work in fields related to the trained major.</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>Bachelor Program of Business Adminstration</t>
+  </si>
+  <si>
+    <t>he187296</t>
+  </si>
+  <si>
+    <t>The objective of the Bachelor of Business Administration – Tourism and Travel Management program of FPT University is to train students into specialists in tourism and travel management, tour guides, tour managers and operators. Students will be equipped with all essential knowledge and skills to work in the field of tourism and travel management and in an international working environment or to continue into the next higher level of education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJP </t>
+  </si>
+  <si>
+    <t>Bachelor Program of Japanese Studies</t>
+  </si>
+  <si>
+    <t>The professional objective of the Training program of Japanese Language (hereinafter referred to as the Training program) is to train Japanese Language graduates with political qualities, professional ethics, having an understanding of Japanese culture, mastering knowledge of Japanese language and being able to use Japanese as an effective tool at work. With 3 orientations namely Translation - Interpreting, Hotel &amp; Tourism Management, and Information Technology, students can develop careers in specialized fields and keep up with the development trends towards diversification and specialization of many fields and occupations of the society, meet demand for human resources related to Japanese language of agencies and departments organizations and enterprises in the domestic and foreign environment.
+In addition, the Training program always emphasizes on equipping students with foreign language skills through the Preparation English program lasting from 0-1 years depending on the student's level and the output is equivalent to IELTS 6.0. After graduating, students can study and work in international and multicultural environments in different countries.
+The training program also aims to provide students with soft skills such as communication, teamwork, critical thinking, entrepreneurial mindset, serious work spirit, dedication, creative thinking, the ability of lifelong learning and fundamental understandings of politics, law, ethics, and scientific methodology. These knowledge and skills will be equipped for students through the courses of Political theory, National Defense Education, etc.
+The program also aims to preserve the values and national identity of Vietnam by involving Traditional musical instruments, Vovinam courses in the training program. These values will help deepen students' national pride, bringing difference for learners when working in multicultural environments.</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>Bachelor Program of Korean studies</t>
+  </si>
+  <si>
+    <t>Training Bachelor of Korean Language with political qualities, professional ethics, having an understanding of Korean culture, master knowledge and language skills to apply fluently in a multilingual and multicultural environment. With 2 combos namely "Economy and Trade Orientation" and "Tourism Orientation", students will be equipped with supplemental knowledge and skills, having solid professional skills, meeting the needs of society and the Vietnamese economy which is developing and under the integration process into the global economy.</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Preparation English</t>
+  </si>
+  <si>
+    <t>The preparation phase involves a 5-week Orientation and General Training program (OTP) and the English Preparation courses (PEN) which could last from 2 months to 1 year. The OTP includes 3 parts: 1) Orientation; 2) Military training; and 3) Experience, aiming at introducing students to community engagement, sustainable development, and military training. Students may have to attend PEN only if they fail to meet the entrance language requirement. PEN is classified into 6 levels ranging from A0 to B2 and each level of PEN is taught in 2 months. PEN could take place before or simultaneously with the OTP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL </t>
+  </si>
+  <si>
+    <t>English Language</t>
+  </si>
+  <si>
+    <t>Training bachelors in English Language to have enough knowledge, professional skills, political products, ethics, professional behavior and good health to be able to work effectively through the use of English in the field. field of commerce or information technology, meeting the requirements of society and the economy in the process of international integration. Training program objectives: a) Equip students with basic knowledge of the English language, knowledge and professional skills in specific fields such as commerce or information technology. b) Train students in the necessary virtues and skills in a professional working environment, know how to apply language knowledge and combine knowledge of commerce and information technology into real work. c) Provide students with cultural and social knowledge; Train and promote initiative and creativity in study, work and life. Students majoring in English can work at domestic enterprises, foreign-invested enterprises, representative offices, international organizations, economic, financial, and public organizations. Domestic, international and regional arts in fields such as education, business, import-export, media, aviation, banking, auditing, management and research, can guarantee some jobs such as: - Translator, interpreter; - Sales, sales, business development officer; - Signal officer; - Transaction officer; - Teller - Customer care officer - Assistant (internship) director, project director; - English lecturer specializing in commerce and technology</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Graphic Design</t>
+  </si>
+  <si>
+    <t>Buffet 1 &amp; 2 free
+ADI201 Design effective design (Brand identity design)
+ADB201 Design Book (Book Design)
+ADP201 Packaging design (Packaging design)
+DGP201 Digital Painting (Digital Painting)</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>Multimedia Communicatio</t>
+  </si>
+  <si>
+    <t>Elective industry knowledge group 1 (choose 2/4)
+WED201 Basic website design Web Design
+DTG302 Image and sound design in filmmaking (Visual Effects - Principles of Compositing)
+TPG20x Typography 1 (Typography 1)
+MID201 Multimedia Interactive Design (Multimedia Interactive Design)
+Elective industry knowledge group 2 (choose 2/3)
+MKT304 Integrated Marketing Communication
+CMC201 Culture and Communication (Communication and Culture)
+CAA201 Principles of Advertising and Communication (Principles of Advertising and Communication)</t>
+  </si>
+  <si>
+    <t>Bui Bao Linh</t>
+  </si>
+  <si>
+    <t>linhbbhe182407@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>he182407</t>
+  </si>
+  <si>
+    <t>Bui Bich Phuong</t>
+  </si>
+  <si>
+    <t>phuongbbhs186068@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>hs186068</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,9 +780,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF0B57D0"/>
-      <name val="Google Sans Text"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -560,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,7 +841,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,6 +883,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2873B9-7416-42AE-B6F0-05C25F416B1B}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -920,7 +1217,7 @@
     <col min="1" max="1" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
@@ -956,7 +1253,7 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -976,7 +1273,7 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -996,7 +1293,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1006,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.75">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1016,47 +1313,47 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1066,8 +1363,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1076,7 +1373,7 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1086,8 +1383,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1096,18 +1393,18 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1116,7 +1413,7 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1126,8 +1423,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1136,7 +1433,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1146,8 +1443,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1156,7 +1453,7 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1166,8 +1463,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1176,7 +1473,7 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1186,8 +1483,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1196,7 +1493,7 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1206,8 +1503,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1216,7 +1513,7 @@
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1227,17 +1524,17 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -1247,17 +1544,17 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -1267,17 +1564,17 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -1287,17 +1584,17 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -1307,17 +1604,17 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -1327,17 +1624,17 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1347,17 +1644,17 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -1367,17 +1664,17 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
@@ -1387,17 +1684,17 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
@@ -1407,17 +1704,17 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
@@ -1427,17 +1724,17 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>10</v>
@@ -1447,17 +1744,17 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
@@ -1467,17 +1764,17 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -1487,17 +1784,17 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1507,17 +1804,17 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>10</v>
@@ -1527,17 +1824,17 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
@@ -1547,17 +1844,17 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
@@ -1567,17 +1864,17 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
@@ -1587,17 +1884,17 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
@@ -1607,17 +1904,17 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>10</v>
@@ -1627,17 +1924,17 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>10</v>
@@ -1647,17 +1944,17 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
@@ -1667,17 +1964,17 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
@@ -1687,17 +1984,17 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>10</v>
@@ -1707,17 +2004,17 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -1727,17 +2024,17 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
@@ -1747,17 +2044,17 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
@@ -1767,17 +2064,17 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
@@ -1788,16 +2085,182 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>147</v>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21.75">
+      <c r="A51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21.75">
+      <c r="A52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1844,29 +2307,252 @@
     <hyperlink ref="D40" r:id="rId40" xr:uid="{5C71402B-CF76-4386-914F-26D1A945DFE6}"/>
     <hyperlink ref="D42" r:id="rId41" xr:uid="{EB8C1750-A792-47B0-9FD7-EB831BCECCD7}"/>
     <hyperlink ref="D43" r:id="rId42" xr:uid="{6DDF8426-484F-465E-AA3B-C9C6C63C18E6}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{050A9ADE-88A5-4C51-B33A-24F036E5E8CF}"/>
+    <hyperlink ref="D44" r:id="rId44" xr:uid="{9EFFD5FF-2F01-4100-94F4-58179B7135B8}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{2EBE345D-67E5-4B19-8BCD-D302C2705FC5}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{34DBF009-EA45-46DD-8632-0D00D56A724A}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{36A982E2-EE75-4E49-8568-397769CB103F}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{91FB4077-EE5A-4527-9EE2-3F46F6022AE5}"/>
+    <hyperlink ref="D51" r:id="rId49" xr:uid="{8F79D9C2-CD7C-4879-B603-01D71F6BE3CC}"/>
+    <hyperlink ref="D52" r:id="rId50" xr:uid="{FF07D874-6C80-49DB-ACD3-3CC442EF9210}"/>
+    <hyperlink ref="D50" r:id="rId51" xr:uid="{BC890A6D-E0C2-458B-BEE0-2BEEA63C311C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId43"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId52"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E444A-FD5B-4B73-965F-1E1C48D0623E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="9" t="s">
         <v>149</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="150">
+      <c r="A11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="390">
+      <c r="A12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="150">
+      <c r="A13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.5">
+      <c r="A14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="195">
+      <c r="A15" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="210">
+      <c r="A16" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5">
+      <c r="A17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="105">
+      <c r="A18" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="210">
+      <c r="A19" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptuniversity-my.sharepoint.com/personal/anhlnce181767_fpt_edu_vn/Documents/FPT University/2024/SP24/SE1804/DBI202/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301C1297-33C4-42D8-96CA-329D44DCFE69}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{7076F42A-1260-4E82-ADEA-54BA819E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2654B15A-CE23-4BC3-974C-686D18CBEBD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5753F7D-290E-43CF-B893-8C0D3F93B633}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5753F7D-290E-43CF-B893-8C0D3F93B633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,6 @@
     <t>BBA</t>
   </si>
   <si>
-    <t>Bachelor Program of Business Adminstration</t>
-  </si>
-  <si>
     <t>he187296</t>
   </si>
   <si>
@@ -733,6 +730,9 @@
   </si>
   <si>
     <t>hs186068</t>
+  </si>
+  <si>
+    <t>Bachelor Program of Business Administration</t>
   </si>
 </sst>
 </file>
@@ -847,16 +847,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,6 +860,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,10 +883,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,22 +1204,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2873B9-7416-42AE-B6F0-05C25F416B1B}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="39.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1249,7 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1273,7 +1269,7 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1293,7 +1289,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1313,7 +1309,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1327,13 +1323,13 @@
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1353,7 +1349,7 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1373,7 +1369,7 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1393,7 +1389,7 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1413,7 +1409,7 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1433,7 +1429,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1453,7 +1449,7 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1473,7 +1469,7 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1493,7 +1489,7 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1513,7 +1509,7 @@
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1533,7 +1529,7 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1553,7 +1549,7 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1573,7 +1569,7 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1853,7 +1849,7 @@
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1873,7 +1869,7 @@
       <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1893,7 +1889,7 @@
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>115</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1913,7 +1909,7 @@
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1933,7 +1929,7 @@
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="13" t="s">
         <v>121</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1953,7 +1949,7 @@
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1973,7 +1969,7 @@
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1993,7 +1989,7 @@
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="13" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2013,7 +2009,7 @@
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="13" t="s">
         <v>133</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2033,7 +2029,7 @@
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2053,7 +2049,7 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="13" t="s">
         <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2073,7 +2069,7 @@
       <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="13" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -2093,7 +2089,7 @@
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="13" t="s">
         <v>145</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2113,7 +2109,7 @@
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2133,7 +2129,7 @@
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2153,7 +2149,7 @@
       <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="13" t="s">
         <v>177</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2173,7 +2169,7 @@
       <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="13" t="s">
         <v>182</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2193,7 +2189,7 @@
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2207,8 +2203,8 @@
       <c r="A50" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>201</v>
+      <c r="B50" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>8</v>
@@ -2223,18 +2219,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.75">
+    <row r="51" spans="1:6" ht="21">
       <c r="A51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>54</v>
@@ -2243,18 +2239,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.75">
+    <row r="52" spans="1:6" ht="21">
       <c r="A52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>54</v>
@@ -2326,25 +2322,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E444A-FD5B-4B73-965F-1E1C48D0623E}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
@@ -2388,7 +2384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45">
+    <row r="6" spans="1:4" ht="28.8">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2416,7 +2412,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="28.8">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -2431,12 +2427,12 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
@@ -2449,103 +2445,103 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="150">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" ht="129.6">
+      <c r="A11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="390">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:4" ht="345.6">
+      <c r="A12" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="150">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4" ht="129.6">
+      <c r="A13" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>200</v>
+      <c r="B13" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
+      <c r="A14" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="409.5">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="158.4">
+      <c r="A15" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="195">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="17" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="172.8">
+      <c r="A16" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="210">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="409.6">
+      <c r="A17" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.5">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="17" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="86.4">
+      <c r="A18" s="11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="105">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="187.2">
+      <c r="A19" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="210">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnanh2k4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13ECEDA6-CEFC-44BF-B71B-9F733BC2AA0F}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400E3776-DE80-4039-9942-F33BB828808E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF88E27-5719-451E-9510-33DBE68844AF}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$105</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="297">
   <si>
     <t>Ho</t>
   </si>
@@ -69,10 +72,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>CE000001</t>
-  </si>
-  <si>
-    <t>ML</t>
+    <t>CE180001</t>
   </si>
   <si>
     <t>ANVCE000001@fpt.edu.vn</t>
@@ -81,13 +81,16 @@
     <t>CT</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>IB</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>CE000002</t>
+    <t>SE180002</t>
   </si>
   <si>
     <t>BNVSE000002@fpt.edu.vn</t>
@@ -96,13 +99,16 @@
     <t>HCM</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>CE000003</t>
+    <t>SE180003</t>
   </si>
   <si>
     <t>CNVSE000003@fpt.edu.vn</t>
@@ -114,7 +120,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>CE000004</t>
+    <t>CE180004</t>
   </si>
   <si>
     <t>DNVCE000004@fpt.edu.vn</t>
@@ -126,7 +132,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>CE000005</t>
+    <t>CE180005</t>
   </si>
   <si>
     <t>ENVCE000005@fpt.edu.vn</t>
@@ -138,19 +144,16 @@
     <t>F</t>
   </si>
   <si>
-    <t>CE000006</t>
+    <t>CE180006</t>
   </si>
   <si>
     <t>FNVCE000006@fpt.edu.vn</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>CE000007</t>
+    <t>CE180007</t>
   </si>
   <si>
     <t>GNVCE000007@fpt.edu.vn</t>
@@ -162,7 +165,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>CE000008</t>
+    <t>CE180008</t>
   </si>
   <si>
     <t>HNVCE000008@fpt.edu.vn</t>
@@ -171,7 +174,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>CE000009</t>
+    <t>CE180009</t>
   </si>
   <si>
     <t>INVCE000009@fpt.edu.vn</t>
@@ -180,7 +183,7 @@
     <t>J</t>
   </si>
   <si>
-    <t>CE000010</t>
+    <t>CE180010</t>
   </si>
   <si>
     <t>JNVCE000010@fpt.edu.vn</t>
@@ -192,7 +195,7 @@
     <t>K</t>
   </si>
   <si>
-    <t>CE000011</t>
+    <t>CE180011</t>
   </si>
   <si>
     <t>KNVCE000011@fpt.edu.vn</t>
@@ -201,7 +204,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>CE000012</t>
+    <t>SE180012</t>
   </si>
   <si>
     <t>LNVSE000012@fpt.edu.vn</t>
@@ -210,7 +213,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>CE000013</t>
+    <t>HE180013</t>
   </si>
   <si>
     <t>MNVHE000013@fpt.edu.vn</t>
@@ -219,10 +222,13 @@
     <t>HL</t>
   </si>
   <si>
+    <t>HE</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>CE000014</t>
+    <t>HE180014</t>
   </si>
   <si>
     <t>NNVHE000014@fpt.edu.vn</t>
@@ -231,7 +237,7 @@
     <t>O</t>
   </si>
   <si>
-    <t>CE000015</t>
+    <t>CE180015</t>
   </si>
   <si>
     <t>ONVCE000015@fpt.edu.vn</t>
@@ -240,13 +246,13 @@
     <t>P</t>
   </si>
   <si>
-    <t>CE000016</t>
+    <t>CE180016</t>
   </si>
   <si>
     <t>PNVCE000016@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000017</t>
+    <t>CE180017</t>
   </si>
   <si>
     <t>KNVCE000017@fpt.edu.vn</t>
@@ -258,7 +264,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>CE000018</t>
+    <t>CE180018</t>
   </si>
   <si>
     <t>RNVCE000018@fpt.edu.vn</t>
@@ -267,7 +273,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>CE000019</t>
+    <t>CE180019</t>
   </si>
   <si>
     <t>SNVCE000019@fpt.edu.vn</t>
@@ -276,7 +282,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>CE000020</t>
+    <t>CE180020</t>
   </si>
   <si>
     <t>TNVCE000020@fpt.edu.vn</t>
@@ -285,7 +291,7 @@
     <t>U</t>
   </si>
   <si>
-    <t>CE000021</t>
+    <t>CE180021</t>
   </si>
   <si>
     <t>UNVCE000021@fpt.edu.vn</t>
@@ -294,7 +300,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>CE000022</t>
+    <t>CE180022</t>
   </si>
   <si>
     <t>VNVCE000022@fpt.edu.vn</t>
@@ -303,7 +309,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>CE000023</t>
+    <t>CE180023</t>
   </si>
   <si>
     <t>WNVCE000023@fpt.edu.vn</t>
@@ -312,7 +318,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>CE000024</t>
+    <t>CE180024</t>
   </si>
   <si>
     <t>XNVCE000024@fpt.edu.vn</t>
@@ -321,7 +327,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CE000025</t>
+    <t>CE180025</t>
   </si>
   <si>
     <t>YNVCE000025@fpt.edu.vn</t>
@@ -333,7 +339,7 @@
     <t>Z</t>
   </si>
   <si>
-    <t>CE000026</t>
+    <t>CE180026</t>
   </si>
   <si>
     <t>ZNVCE000026@fpt.edu.vn</t>
@@ -342,88 +348,85 @@
     <t>Nguyen Thi</t>
   </si>
   <si>
-    <t>CE000027</t>
-  </si>
-  <si>
-    <t>FM</t>
+    <t>CE180027</t>
   </si>
   <si>
     <t>ANVCE000027@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000028</t>
+    <t>CE180028</t>
   </si>
   <si>
     <t>BNVCE000028@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000029</t>
+    <t>CE180029</t>
   </si>
   <si>
     <t>CNVCE000029@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000030</t>
+    <t>CE180030</t>
   </si>
   <si>
     <t>DNVCE000030@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000031</t>
+    <t>CE180031</t>
   </si>
   <si>
     <t>ENVCE000031@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000032</t>
+    <t>CE180032</t>
   </si>
   <si>
     <t>FNVCE000032@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000033</t>
+    <t>CE180033</t>
   </si>
   <si>
     <t>GNVCE000033@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000034</t>
+    <t>CE180034</t>
   </si>
   <si>
     <t>HNVCE000034@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000035</t>
+    <t>CE180035</t>
   </si>
   <si>
     <t>INVCE000035@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000036</t>
+    <t>CE180036</t>
   </si>
   <si>
     <t>JNVCE000036@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000037</t>
+    <t>CE180037</t>
   </si>
   <si>
     <t>KNVCE000037@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000038</t>
+    <t>CE180038</t>
   </si>
   <si>
     <t>LNVCE000038@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000039</t>
+    <t>CE180039</t>
   </si>
   <si>
     <t>MNVCE000039@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000040</t>
+    <t>CE180040</t>
   </si>
   <si>
     <t>NNVCE000040@fpt.edu.vn</t>
@@ -432,37 +435,37 @@
     <t>HM</t>
   </si>
   <si>
-    <t>CE000041</t>
+    <t>CE180041</t>
   </si>
   <si>
     <t>ONVCE000041@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000042</t>
+    <t>CE180042</t>
   </si>
   <si>
     <t>PNTCE000042@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000043</t>
+    <t>HE180043</t>
   </si>
   <si>
     <t>KNTHE000043@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000044</t>
+    <t>HE180044</t>
   </si>
   <si>
     <t>RNTHE000044@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000045</t>
+    <t>HE180045</t>
   </si>
   <si>
     <t>SNTHE000045@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000046</t>
+    <t>HE180046</t>
   </si>
   <si>
     <t>TNTHE000046@fpt.edu.vn</t>
@@ -471,7 +474,7 @@
     <t>TM</t>
   </si>
   <si>
-    <t>CE000047</t>
+    <t>HE180047</t>
   </si>
   <si>
     <t>UNTHE000047@fpt.edu.vn</t>
@@ -480,13 +483,13 @@
     <t>AI</t>
   </si>
   <si>
-    <t>CE000048</t>
+    <t>HE180048</t>
   </si>
   <si>
     <t>VNTHE000048@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000049</t>
+    <t>HE180049</t>
   </si>
   <si>
     <t>WNTHE000049@fpt.edu.vn</t>
@@ -495,13 +498,13 @@
     <t>GD</t>
   </si>
   <si>
-    <t>CE000050</t>
+    <t>HE180050</t>
   </si>
   <si>
     <t>XNTHE000050@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000051</t>
+    <t>DE180051</t>
   </si>
   <si>
     <t>YNTDE000051@fpt.edu.vn</t>
@@ -510,7 +513,10 @@
     <t>DN</t>
   </si>
   <si>
-    <t>CE000052</t>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HE180052</t>
   </si>
   <si>
     <t>ZNTHE000052@fpt.edu.vn</t>
@@ -519,157 +525,157 @@
     <t>Le Thai</t>
   </si>
   <si>
-    <t>CE000053</t>
+    <t>HE180053</t>
   </si>
   <si>
     <t>ANTHE000053@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000054</t>
+    <t>SE180054</t>
   </si>
   <si>
     <t>BNTSE000054@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000055</t>
+    <t>DE180055</t>
   </si>
   <si>
     <t>CNTDE000055@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000056</t>
+    <t>SE180056</t>
   </si>
   <si>
     <t>DNTSE000056@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000057</t>
+    <t>CE180057</t>
   </si>
   <si>
     <t>ENTCE000057@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000058</t>
+    <t>SE180058</t>
   </si>
   <si>
     <t>FNTSE000058@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000059</t>
+    <t>DE180059</t>
   </si>
   <si>
     <t>GNTDE000059@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000060</t>
+    <t>SE180060</t>
   </si>
   <si>
     <t>HNTSE000060@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000061</t>
+    <t>CE180061</t>
   </si>
   <si>
     <t>INTCE000061@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000062</t>
+    <t>SE180062</t>
   </si>
   <si>
     <t>JNTSE000062@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000063</t>
+    <t>SE180063</t>
   </si>
   <si>
     <t>KNTSE000063@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000064</t>
+    <t>SE180064</t>
   </si>
   <si>
     <t>LNTSE000064@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000065</t>
+    <t>SE180065</t>
   </si>
   <si>
     <t>MNTSE000065@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000066</t>
+    <t>DE180066</t>
   </si>
   <si>
     <t>NNTDE000066@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000067</t>
+    <t>CE180067</t>
   </si>
   <si>
     <t>ONTCE000067@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000068</t>
+    <t>HE180068</t>
   </si>
   <si>
     <t>PNTHE000068@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000069</t>
+    <t>SE180069</t>
   </si>
   <si>
     <t>KNTSE000069@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000070</t>
+    <t>SE180070</t>
   </si>
   <si>
     <t>RNTSE000070@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000071</t>
+    <t>DE180071</t>
   </si>
   <si>
     <t>SNTDE000071@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000072</t>
+    <t>HE180072</t>
   </si>
   <si>
     <t>TNTHE000072@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000073</t>
+    <t>CE180073</t>
   </si>
   <si>
     <t>UNTCE000073@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000074</t>
+    <t>SE180074</t>
   </si>
   <si>
     <t>VNTSE000074@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000075</t>
+    <t>CE180075</t>
   </si>
   <si>
     <t>WNTCE000075@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000076</t>
+    <t>DE180076</t>
   </si>
   <si>
     <t>XNTDE000076@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000077</t>
+    <t>DE180077</t>
   </si>
   <si>
     <t>YNTDE000077@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000078</t>
+    <t>HE180078</t>
   </si>
   <si>
     <t>ZNTHE000078@fpt.edu.vn</t>
@@ -678,157 +684,157 @@
     <t>Le Thi</t>
   </si>
   <si>
-    <t>CE000079</t>
+    <t>DE180079</t>
   </si>
   <si>
     <t>ANTDE000079@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000080</t>
+    <t>DE180080</t>
   </si>
   <si>
     <t>BNTDE000080@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000081</t>
+    <t>HE180081</t>
   </si>
   <si>
     <t>CNTHE000081@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000082</t>
+    <t>SE180082</t>
   </si>
   <si>
     <t>DNTSE000082@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000083</t>
+    <t>SE180083</t>
   </si>
   <si>
     <t>ENTSE000083@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000084</t>
+    <t>CE180084</t>
   </si>
   <si>
     <t>FNTCE000084@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000085</t>
+    <t>DE180085</t>
   </si>
   <si>
     <t>GNTDE000085@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000086</t>
+    <t>HE180086</t>
   </si>
   <si>
     <t>HNTHE000086@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000087</t>
+    <t>HE180087</t>
   </si>
   <si>
     <t>INTHE000087@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000088</t>
+    <t>DE180088</t>
   </si>
   <si>
     <t>JNTDE000088@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000089</t>
+    <t>SE180089</t>
   </si>
   <si>
     <t>KNTSE000089@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000090</t>
+    <t>SE180090</t>
   </si>
   <si>
     <t>LNTSE000090@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000091</t>
+    <t>SE180091</t>
   </si>
   <si>
     <t>MNTSE000091@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000092</t>
+    <t>DE180092</t>
   </si>
   <si>
     <t>NNTDE000092@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000093</t>
+    <t>CE180093</t>
   </si>
   <si>
     <t>ONTCE000093@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000094</t>
+    <t>HE180094</t>
   </si>
   <si>
     <t>PNTHE000094@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000095</t>
+    <t>HE180095</t>
   </si>
   <si>
     <t>KNTHE000095@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000096</t>
+    <t>HE180096</t>
   </si>
   <si>
     <t>RNTHE000096@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000097</t>
+    <t>DE180097</t>
   </si>
   <si>
     <t>SNTDE000097@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000098</t>
+    <t>CE180098</t>
   </si>
   <si>
     <t>TNTCE000098@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000099</t>
+    <t>HE180099</t>
   </si>
   <si>
     <t>UNTHE000099@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000100</t>
+    <t>DE180100</t>
   </si>
   <si>
     <t>VNTDE000100@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000101</t>
+    <t>SE180101</t>
   </si>
   <si>
     <t>WNTSE000101@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000102</t>
+    <t>SE180102</t>
   </si>
   <si>
     <t>XNTSE000102@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000103</t>
+    <t>SE180103</t>
   </si>
   <si>
     <t>YNTSE000103@fpt.edu.vn</t>
   </si>
   <si>
-    <t>CE000104</t>
+    <t>DE180104</t>
   </si>
   <si>
     <t>ZNTDE000104@fpt.edu.vn</t>
@@ -1088,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,6 +1148,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,22 +1471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -1485,7 +1497,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1508,23 +1520,23 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="12">
-        <v>7340201</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>14</v>
@@ -1534,14 +1546,14 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+      <c r="D3" s="20">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -1549,138 +1561,138 @@
       <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12">
-        <v>7480201</v>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="12">
-        <v>7480201</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12">
-        <v>7220209</v>
-      </c>
       <c r="H6" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
+      <c r="D8" s="20">
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="12">
-        <v>7340101</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>39</v>
@@ -1690,75 +1702,75 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
+      <c r="D9" s="20">
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
+      <c r="D10" s="20">
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H10" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
+      <c r="D11" s="20">
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G11" s="12">
-        <v>7220210</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>49</v>
@@ -1768,40 +1780,40 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
+      <c r="D12" s="20">
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H12" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
+      <c r="D13" s="20">
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>55</v>
@@ -1809,8 +1821,8 @@
       <c r="F13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12">
-        <v>7220210</v>
+      <c r="G13" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>49</v>
@@ -1820,14 +1832,14 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
+      <c r="D14" s="20">
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>58</v>
@@ -1835,86 +1847,86 @@
       <c r="F14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="12">
-        <v>7480201</v>
+      <c r="G14" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="12">
-        <v>7480201</v>
+      <c r="G15" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
+      <c r="C16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H16" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" s="12">
-        <v>7340201</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>14</v>
@@ -1924,75 +1936,75 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
+      <c r="C18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H18" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
+      <c r="C19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="12">
-        <v>7340101</v>
-      </c>
       <c r="H19" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
+      <c r="C20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G20" s="12">
-        <v>7480201</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>39</v>
@@ -2002,231 +2014,231 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
+      <c r="C21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H21" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
+      <c r="C22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
+      <c r="C23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H23" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
+      <c r="C24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H24" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
+      <c r="C25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
+      <c r="C26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H26" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="12">
-        <v>7220201</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>102</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="12">
-        <v>7340101</v>
-      </c>
       <c r="H28" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>102</v>
+      <c r="D29" s="20">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G29" s="12">
-        <v>7340101</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>39</v>
@@ -2234,25 +2246,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>102</v>
+      <c r="D30" s="20">
+        <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G30" s="12">
-        <v>7340101</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>39</v>
@@ -2260,25 +2272,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
+      <c r="D31" s="20">
+        <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G31" s="12">
-        <v>7340101</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>39</v>
@@ -2286,25 +2298,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>102</v>
+      <c r="D32" s="20">
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G32" s="12">
-        <v>7340101</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>39</v>
@@ -2312,25 +2324,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>102</v>
+      <c r="D33" s="20">
+        <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G33" s="12">
-        <v>7220201</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>39</v>
@@ -2338,25 +2350,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
+      <c r="D34" s="20">
+        <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G34" s="12">
-        <v>7480201</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>49</v>
@@ -2364,77 +2376,77 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>102</v>
+      <c r="D35" s="20">
+        <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H35" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
+      <c r="D36" s="20">
+        <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
-        <v>7340201</v>
-      </c>
       <c r="H36" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
+      <c r="D37" s="20">
+        <v>0</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G37" s="12">
-        <v>7340201</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>14</v>
@@ -2442,25 +2454,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
+      <c r="D38" s="20">
+        <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G38" s="12">
-        <v>7220201</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>14</v>
@@ -2468,77 +2480,77 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
+      <c r="D39" s="20">
+        <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H39" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>102</v>
+      <c r="D40" s="20">
+        <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="12">
-        <v>7340101</v>
-      </c>
       <c r="H40" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>102</v>
+      <c r="D41" s="20">
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G41" s="12">
-        <v>7340101</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>130</v>
@@ -2546,25 +2558,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>102</v>
+      <c r="D42" s="20">
+        <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="G42" s="12">
-        <v>7220201</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>130</v>
@@ -2572,42 +2584,42 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
+      <c r="D43" s="20">
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H43" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>102</v>
+      <c r="D44" s="20">
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>136</v>
@@ -2615,25 +2627,25 @@
       <c r="F44" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="12">
-        <v>7480201</v>
+      <c r="G44" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>102</v>
+      <c r="D45" s="20">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>138</v>
@@ -2641,25 +2653,25 @@
       <c r="F45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="12">
-        <v>7480201</v>
+      <c r="G45" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>102</v>
+      <c r="D46" s="20">
+        <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>140</v>
@@ -2667,25 +2679,25 @@
       <c r="F46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="12">
-        <v>7340101</v>
+      <c r="G46" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>102</v>
+      <c r="D47" s="20">
+        <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>142</v>
@@ -2693,8 +2705,8 @@
       <c r="F47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="12">
-        <v>7480201</v>
+      <c r="G47" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>143</v>
@@ -2702,16 +2714,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>102</v>
+      <c r="D48" s="20">
+        <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>145</v>
@@ -2719,8 +2731,8 @@
       <c r="F48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="12">
-        <v>7480201</v>
+      <c r="G48" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>146</v>
@@ -2728,16 +2740,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>102</v>
+      <c r="D49" s="20">
+        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>148</v>
@@ -2745,8 +2757,8 @@
       <c r="F49" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="12">
-        <v>7480201</v>
+      <c r="G49" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>146</v>
@@ -2754,16 +2766,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>102</v>
+      <c r="D50" s="20">
+        <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>150</v>
@@ -2771,8 +2783,8 @@
       <c r="F50" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="12">
-        <v>7220201</v>
+      <c r="G50" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>151</v>
@@ -2780,16 +2792,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>102</v>
+      <c r="D51" s="20">
+        <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>153</v>
@@ -2797,8 +2809,8 @@
       <c r="F51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="12">
-        <v>7480201</v>
+      <c r="G51" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>49</v>
@@ -2806,16 +2818,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>102</v>
+      <c r="D52" s="20">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>155</v>
@@ -2823,60 +2835,60 @@
       <c r="F52" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="12">
-        <v>7480201</v>
+      <c r="G52" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="12">
-        <v>7220201</v>
+      <c r="G53" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
+      <c r="C54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="12">
-        <v>7480201</v>
+      <c r="G54" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>151</v>
@@ -2884,1336 +2896,1332 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
+      <c r="C55" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="20">
+        <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="12">
-        <v>7480201</v>
+      <c r="G55" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="20">
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G56" s="12">
-        <v>7480201</v>
+      <c r="G56" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="20">
+        <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="12">
-        <v>7480201</v>
+      <c r="G57" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="20">
+        <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F58" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H58" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="20">
+        <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="12">
-        <v>7480201</v>
+      <c r="G59" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
+      <c r="C60" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G60" s="12">
-        <v>7480201</v>
+      <c r="G60" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
+      <c r="C61" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="20">
+        <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="12">
-        <v>7480201</v>
+      <c r="G61" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
+      <c r="C62" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="12">
-        <v>7220201</v>
-      </c>
       <c r="H62" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
+      <c r="C63" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="20">
+        <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="12">
-        <v>7480201</v>
+      <c r="G63" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
+      <c r="C64" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="20">
+        <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="12">
-        <v>7220201</v>
+      <c r="G64" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
+      <c r="C65" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="20">
+        <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="12">
-        <v>7480201</v>
+      <c r="G65" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
+      <c r="C66" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="20">
+        <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="12">
-        <v>7220201</v>
+      <c r="G66" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="20">
+        <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="12">
-        <v>7220201</v>
+      <c r="G67" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H68" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="20">
+        <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="12">
-        <v>7480201</v>
+      <c r="G69" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
+      <c r="C70" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="20">
+        <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="12">
-        <v>7480201</v>
+      <c r="G70" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="20">
+        <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="12">
-        <v>7220201</v>
+      <c r="G71" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="20">
+        <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G72" s="12">
-        <v>7480201</v>
+      <c r="G72" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="20">
+        <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="12">
-        <v>7480201</v>
+      <c r="G73" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="20">
+        <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F74" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H74" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="20">
+        <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="12">
-        <v>7220201</v>
+      <c r="G75" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="20">
+        <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="12">
-        <v>7480201</v>
+        <v>12</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="20">
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="12">
-        <v>7480201</v>
+      <c r="G77" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="20">
+        <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G78" s="12">
-        <v>7480201</v>
+      <c r="G78" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="20">
+        <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="12">
-        <v>7220201</v>
+      <c r="G79" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>102</v>
+      <c r="C80" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G80" s="12">
-        <v>7220201</v>
+      <c r="G80" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>102</v>
+      <c r="C81" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="20">
+        <v>0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G81" s="12">
-        <v>7480201</v>
+      <c r="G81" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="20">
+        <v>0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G82" s="12">
-        <v>7480201</v>
+      <c r="G82" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="20">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="12">
-        <v>7480201</v>
+      <c r="G83" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="20">
+        <v>0</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="12">
-        <v>7220201</v>
+      <c r="G84" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="20">
+        <v>0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F85" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H85" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>102</v>
+      <c r="C86" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="20">
+        <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G86" s="12">
-        <v>7480201</v>
+      <c r="G86" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>102</v>
+      <c r="C87" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="20">
+        <v>0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="12">
-        <v>7220201</v>
+      <c r="G87" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>102</v>
+      <c r="C88" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="20">
+        <v>0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G88" s="12">
-        <v>7480201</v>
+      <c r="G88" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>102</v>
+      <c r="C89" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="20">
+        <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G89" s="12">
-        <v>7480201</v>
+      <c r="G89" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>102</v>
+      <c r="C90" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="20">
+        <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="12">
-        <v>7480201</v>
+      <c r="G90" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>102</v>
+      <c r="C91" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="20">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="12">
-        <v>7220201</v>
+      <c r="G91" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>102</v>
+      <c r="C92" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="20">
+        <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="12">
-        <v>7480201</v>
+      <c r="G92" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" s="20">
+        <v>0</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G93" s="12">
-        <v>7480201</v>
+      <c r="G93" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="20">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F94" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H94" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="20">
+        <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="12">
-        <v>7220201</v>
+      <c r="G95" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>102</v>
+      <c r="C96" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="20">
+        <v>0</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G96" s="12">
-        <v>7220201</v>
+      <c r="G96" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="20">
+        <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="12">
-        <v>7480201</v>
+      <c r="G97" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="20">
+        <v>0</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="12">
-        <v>7480201</v>
+      <c r="G98" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="20">
+        <v>0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F99" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="12">
-        <v>7480201</v>
-      </c>
       <c r="H99" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="20">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G100" s="12">
-        <v>7220201</v>
+      <c r="G100" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="20">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G101" s="12">
-        <v>7480201</v>
+      <c r="G101" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="20">
+        <v>0</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="12">
-        <v>7480201</v>
+      <c r="G102" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" s="20">
+        <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G103" s="12">
-        <v>7220201</v>
+      <c r="G103" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" s="20">
+        <v>0</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="12">
-        <v>7480201</v>
+      <c r="G104" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" s="20">
+        <v>0</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="12">
-        <v>7480201</v>
+      <c r="G105" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="G106" s="10">
-        <v>7480201</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H105" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{828D6556-F6AA-450C-9239-0D4A87995E49}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{5380D695-8172-4691-B54D-970F05F8A7D0}"/>
@@ -4339,7 +4347,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4347,112 +4355,112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100.9">
       <c r="A3" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="230.45">
       <c r="A4" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="100.9">
       <c r="A5" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="403.15">
       <c r="A6" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115.15">
       <c r="A7" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6">
       <c r="A8" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="302.45">
       <c r="A9" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.45">
       <c r="A10" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="158.44999999999999">
       <c r="A11" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnanh2k4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400E3776-DE80-4039-9942-F33BB828808E}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AA2D46-41E9-4684-84AC-F6ADC82B97E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF88E27-5719-451E-9510-33DBE68844AF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="281">
   <si>
     <t>Ho</t>
   </si>
@@ -81,12 +81,6 @@
     <t>CT</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>IB</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
     <t>HCM</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>DNVCE000004@fpt.edu.vn</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>ENVCE000005@fpt.edu.vn</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>GNVCE000007@fpt.edu.vn</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -189,9 +168,6 @@
     <t>JNVCE000010@fpt.edu.vn</t>
   </si>
   <si>
-    <t>MKT</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -222,9 +198,6 @@
     <t>HL</t>
   </si>
   <si>
-    <t>HE</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -258,9 +231,6 @@
     <t>KNVCE000017@fpt.edu.vn</t>
   </si>
   <si>
-    <t>IoT</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -333,9 +303,6 @@
     <t>YNVCE000025@fpt.edu.vn</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -432,9 +399,6 @@
     <t>NNVCE000040@fpt.edu.vn</t>
   </si>
   <si>
-    <t>HM</t>
-  </si>
-  <si>
     <t>CE180041</t>
   </si>
   <si>
@@ -471,18 +435,12 @@
     <t>TNTHE000046@fpt.edu.vn</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>HE180047</t>
   </si>
   <si>
     <t>UNTHE000047@fpt.edu.vn</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
     <t>HE180048</t>
   </si>
   <si>
@@ -495,9 +453,6 @@
     <t>WNTHE000049@fpt.edu.vn</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
     <t>HE180050</t>
   </si>
   <si>
@@ -511,9 +466,6 @@
   </si>
   <si>
     <t>DN</t>
-  </si>
-  <si>
-    <t>DE</t>
   </si>
   <si>
     <t>HE180052</t>
@@ -1126,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,6 +1103,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1497,7 +1449,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1509,7 +1461,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1520,2705 +1472,2289 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="B4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="19">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="B9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="19">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="B13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="B15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="19">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="B16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="19">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="B18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="19">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="19">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="B20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="B22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="19">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="B23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="B24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="19">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="B26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="19">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="20">
+      <c r="B27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="19">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>97</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="19">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>97</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="20">
+        <v>90</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="19">
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="20">
+        <v>90</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="19">
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="20">
+        <v>90</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="19">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="20">
+        <v>90</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="19">
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="20">
+        <v>90</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="19">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="20">
+        <v>90</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="19">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="20">
+        <v>90</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="19">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="20">
+        <v>90</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="19">
         <v>0</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="20">
+        <v>90</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="19">
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="20">
+        <v>90</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="19">
         <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="20">
+        <v>90</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="19">
         <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="20">
+        <v>90</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="19">
         <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="20">
+        <v>90</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="19">
         <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>130</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="20">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="19">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="20">
+        <v>90</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="19">
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="20">
+        <v>90</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="19">
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="20">
+        <v>90</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="19">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="20">
+        <v>90</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="19">
         <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="20">
+        <v>90</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="19">
         <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="20">
+        <v>90</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="19">
         <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="20">
+        <v>90</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="19">
         <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>151</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="20">
+        <v>90</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="19">
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="20">
+        <v>90</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="19">
         <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="20">
+        <v>90</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="19">
         <v>0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="20">
+      <c r="C54" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="19">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>151</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="20">
+        <v>144</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="19">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="20">
+        <v>144</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="19">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="20">
+        <v>144</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="19">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="20">
+        <v>144</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="19">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="20">
+        <v>144</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="19">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="20">
+        <v>144</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="19">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="19">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="20">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="20">
+        <v>144</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="19">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="20">
+        <v>144</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="19">
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="20">
+        <v>144</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="19">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="20">
+        <v>144</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="19">
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="20">
+        <v>144</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="19">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="20">
+        <v>144</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="19">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="20">
+        <v>144</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="19">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="20">
+        <v>144</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="19">
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="20">
+        <v>144</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="19">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="20">
+        <v>144</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="19">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="20">
+        <v>144</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="19">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="20">
+        <v>144</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="19">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="20">
+        <v>144</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="19">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="20">
+        <v>144</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="19">
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="20">
+        <v>144</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="19">
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="20">
+        <v>144</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="19">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="20">
+        <v>144</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="19">
         <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" s="20">
+        <v>144</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="19">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="20">
+      <c r="C80" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="19">
         <v>0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="20">
+        <v>197</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="19">
         <v>0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D82" s="20">
+        <v>197</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="19">
         <v>0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" s="20">
+        <v>197</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="19">
         <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D84" s="20">
+        <v>197</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="19">
         <v>0</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="20">
+        <v>197</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="19">
         <v>0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="20">
+        <v>197</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="19">
         <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="20">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="F87" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" s="20">
+        <v>197</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="19">
         <v>0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="20">
+        <v>197</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="19">
         <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D90" s="20">
+        <v>197</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="19">
         <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="20">
+        <v>197</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="19">
         <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="20">
+        <v>197</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" s="19">
         <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" s="20">
+        <v>197</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="19">
         <v>0</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D94" s="20">
+        <v>197</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="19">
         <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D95" s="20">
+        <v>197</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="19">
         <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D96" s="20">
+        <v>197</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="19">
         <v>0</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="20">
+        <v>197</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" s="19">
         <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D98" s="20">
+        <v>197</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="19">
         <v>0</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="20">
+        <v>197</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="19">
         <v>0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" s="20">
+        <v>197</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="19">
         <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="20">
+        <v>197</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="19">
         <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D102" s="20">
+        <v>197</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="19">
         <v>0</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="20">
+        <v>197</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="19">
         <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D104" s="20">
+        <v>197</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" s="19">
         <v>0</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D105" s="20">
+        <v>197</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" s="19">
         <v>0</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H105" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}"/>
@@ -4346,121 +3882,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100.9">
       <c r="A3" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="230.45">
       <c r="A4" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="100.9">
       <c r="A5" s="6" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="403.15">
       <c r="A6" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115.15">
       <c r="A7" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6">
       <c r="A8" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="302.45">
       <c r="A9" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.45">
       <c r="A10" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="158.44999999999999">
       <c r="A11" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnanh2k4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AA2D46-41E9-4684-84AC-F6ADC82B97E4}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{CEEDFA0A-6221-4E1C-995B-3B346DE8082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B6B0C8-CF99-442A-BAB6-5CA7D60CB8A3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF88E27-5719-451E-9510-33DBE68844AF}"/>
   </bookViews>
@@ -72,25 +72,25 @@
     <t>A</t>
   </si>
   <si>
-    <t>CE180001</t>
-  </si>
-  <si>
-    <t>ANVCE000001@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CT</t>
+    <t>CA180001</t>
+  </si>
+  <si>
+    <t>ANVCA180001@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>FUCT</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>SE180002</t>
-  </si>
-  <si>
-    <t>BNVSE000002@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HCM</t>
+    <t>QE180002</t>
+  </si>
+  <si>
+    <t>BNVQE180002@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>FUQN</t>
   </si>
   <si>
     <t>C</t>
@@ -99,19 +99,19 @@
     <t>SE180003</t>
   </si>
   <si>
-    <t>CNVSE000003@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCM </t>
+    <t>CNVEE180003@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>FUHCM</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>CE180004</t>
-  </si>
-  <si>
-    <t>DNVCE000004@fpt.edu.vn</t>
+    <t>CS180004</t>
+  </si>
+  <si>
+    <t>DNVCS180004@fpt.edu.vn</t>
   </si>
   <si>
     <t>E</t>
@@ -120,16 +120,16 @@
     <t>CE180005</t>
   </si>
   <si>
-    <t>ENVCE000005@fpt.edu.vn</t>
+    <t>ENVCE180005@fpt.edu.vn</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>CE180006</t>
-  </si>
-  <si>
-    <t>FNVCE000006@fpt.edu.vn</t>
+    <t>CS180006</t>
+  </si>
+  <si>
+    <t>FNVCS180006@fpt.edu.vn</t>
   </si>
   <si>
     <t>G</t>
@@ -138,16 +138,16 @@
     <t>CE180007</t>
   </si>
   <si>
-    <t>GNVCE000007@fpt.edu.vn</t>
+    <t>GNVCE180007@fpt.edu.vn</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>CE180008</t>
-  </si>
-  <si>
-    <t>HNVCE000008@fpt.edu.vn</t>
+    <t>CA180008</t>
+  </si>
+  <si>
+    <t>HNVCA180008@fpt.edu.vn</t>
   </si>
   <si>
     <t>I</t>
@@ -156,16 +156,16 @@
     <t>CE180009</t>
   </si>
   <si>
-    <t>INVCE000009@fpt.edu.vn</t>
+    <t>INVCE180009@fpt.edu.vn</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>CE180010</t>
-  </si>
-  <si>
-    <t>JNVCE000010@fpt.edu.vn</t>
+    <t>SE180010</t>
+  </si>
+  <si>
+    <t>JNVSE180010@fpt.edu.vn</t>
   </si>
   <si>
     <t>K</t>
@@ -174,7 +174,7 @@
     <t>CE180011</t>
   </si>
   <si>
-    <t>KNVCE000011@fpt.edu.vn</t>
+    <t>KNVCE180011@fpt.edu.vn</t>
   </si>
   <si>
     <t>L</t>
@@ -183,79 +183,79 @@
     <t>SE180012</t>
   </si>
   <si>
-    <t>LNVSE000012@fpt.edu.vn</t>
+    <t>LNVSE180012@fpt.edu.vn</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>HE180013</t>
-  </si>
-  <si>
-    <t>MNVHE000013@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HL</t>
+    <t>HS180013</t>
+  </si>
+  <si>
+    <t>MNVHS180013@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>FUHN</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>HE180014</t>
-  </si>
-  <si>
-    <t>NNVHE000014@fpt.edu.vn</t>
+    <t>HS180014</t>
+  </si>
+  <si>
+    <t>NNVHS180014@fpt.edu.vn</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>CE180015</t>
-  </si>
-  <si>
-    <t>ONVCE000015@fpt.edu.vn</t>
+    <t>QA180015</t>
+  </si>
+  <si>
+    <t>ONVQA180015@fpt.edu.vn</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>CE180016</t>
-  </si>
-  <si>
-    <t>PNVCE000016@fpt.edu.vn</t>
+    <t>CA180016</t>
+  </si>
+  <si>
+    <t>PNVCA180016@fpt.edu.vn</t>
   </si>
   <si>
     <t>CE180017</t>
   </si>
   <si>
-    <t>KNVCE000017@fpt.edu.vn</t>
+    <t>KNVCE180017@fpt.edu.vn</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>CE180018</t>
-  </si>
-  <si>
-    <t>RNVCE000018@fpt.edu.vn</t>
+    <t>SE180018</t>
+  </si>
+  <si>
+    <t>RNVSE180018@fpt.edu.vn</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>CE180019</t>
-  </si>
-  <si>
-    <t>SNVCE000019@fpt.edu.vn</t>
+    <t>CA180019</t>
+  </si>
+  <si>
+    <t>SNVCA180019@fpt.edu.vn</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>CE180020</t>
-  </si>
-  <si>
-    <t>TNVCE000020@fpt.edu.vn</t>
+    <t>SS180020</t>
+  </si>
+  <si>
+    <t>TNVSS180020@fpt.edu.vn</t>
   </si>
   <si>
     <t>U</t>
@@ -264,25 +264,25 @@
     <t>CE180021</t>
   </si>
   <si>
-    <t>UNVCE000021@fpt.edu.vn</t>
+    <t>UNVCE180021@fpt.edu.vn</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>CE180022</t>
-  </si>
-  <si>
-    <t>VNVCE000022@fpt.edu.vn</t>
+    <t>SE180022</t>
+  </si>
+  <si>
+    <t>VNVSE180022@fpt.edu.vn</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>CE180023</t>
-  </si>
-  <si>
-    <t>WNVCE000023@fpt.edu.vn</t>
+    <t>CS180023</t>
+  </si>
+  <si>
+    <t>WNVCS180023@fpt.edu.vn</t>
   </si>
   <si>
     <t>X</t>
@@ -291,7 +291,7 @@
     <t>CE180024</t>
   </si>
   <si>
-    <t>XNVCE000024@fpt.edu.vn</t>
+    <t>XNVCE180024@fpt.edu.vn</t>
   </si>
   <si>
     <t>Y</t>
@@ -300,7 +300,7 @@
     <t>CE180025</t>
   </si>
   <si>
-    <t>YNVCE000025@fpt.edu.vn</t>
+    <t>YNVCE180025@fpt.edu.vn</t>
   </si>
   <si>
     <t>Z</t>
@@ -309,169 +309,169 @@
     <t>CE180026</t>
   </si>
   <si>
-    <t>ZNVCE000026@fpt.edu.vn</t>
+    <t>ZNVCE180026@fpt.edu.vn</t>
   </si>
   <si>
     <t>Nguyen Thi</t>
   </si>
   <si>
-    <t>CE180027</t>
-  </si>
-  <si>
-    <t>ANVCE000027@fpt.edu.vn</t>
+    <t>CA180027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTCA180027@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180028</t>
   </si>
   <si>
-    <t>BNVCE000028@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180029</t>
-  </si>
-  <si>
-    <t>CNVCE000029@fpt.edu.vn</t>
+    <t xml:space="preserve">BNTCE180028@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>QE180029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNTQE180029@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180030</t>
   </si>
   <si>
-    <t>DNVCE000030@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180031</t>
-  </si>
-  <si>
-    <t>ENVCE000031@fpt.edu.vn</t>
+    <t xml:space="preserve">DNTCE180030@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>CA180031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTCA180031@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180032</t>
   </si>
   <si>
-    <t>FNVCE000032@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180033</t>
-  </si>
-  <si>
-    <t>GNVCE000033@fpt.edu.vn</t>
+    <t xml:space="preserve">FNTCE180032@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>QE180033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNTQE180033@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180034</t>
   </si>
   <si>
-    <t>HNVCE000034@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180035</t>
-  </si>
-  <si>
-    <t>INVCE000035@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180036</t>
-  </si>
-  <si>
-    <t>JNVCE000036@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180037</t>
-  </si>
-  <si>
-    <t>KNVCE000037@fpt.edu.vn</t>
+    <t xml:space="preserve">HNTCE180034@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>CA180035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTCA180035@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>SE180036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNTSE180036@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>CS180037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNTCS180037@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180038</t>
   </si>
   <si>
-    <t>LNVCE000038@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180039</t>
-  </si>
-  <si>
-    <t>MNVCE000039@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180040</t>
-  </si>
-  <si>
-    <t>NNVCE000040@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180041</t>
-  </si>
-  <si>
-    <t>ONVCE000041@fpt.edu.vn</t>
+    <t xml:space="preserve">LNTCE180038@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>SE180039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNTSE180039@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>SE180040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNTSE180040@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>SE180041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONTSE180041@fpt.edu.vn  </t>
   </si>
   <si>
     <t>CE180042</t>
   </si>
   <si>
-    <t>PNTCE000042@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180043</t>
-  </si>
-  <si>
-    <t>KNTHE000043@fpt.edu.vn</t>
+    <t xml:space="preserve">PNTCE180042@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>HS180043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNTHS180043@fpt.edu.vn  </t>
   </si>
   <si>
     <t>HE180044</t>
   </si>
   <si>
-    <t>RNTHE000044@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180045</t>
-  </si>
-  <si>
-    <t>SNTHE000045@fpt.edu.vn</t>
+    <t xml:space="preserve">RNTHE180044@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>HS180045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNTHS180045@fpt.edu.vn  </t>
   </si>
   <si>
     <t>HE180046</t>
   </si>
   <si>
-    <t>TNTHE000046@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180047</t>
-  </si>
-  <si>
-    <t>UNTHE000047@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180048</t>
-  </si>
-  <si>
-    <t>VNTHE000048@fpt.edu.vn</t>
+    <t xml:space="preserve">TNTHE180046@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>QS180047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNTQS180047@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>HS180048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNTHS180048@fpt.edu.vn  </t>
   </si>
   <si>
     <t>HE180049</t>
   </si>
   <si>
-    <t>WNTHE000049@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180050</t>
-  </si>
-  <si>
-    <t>XNTHE000050@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180051</t>
-  </si>
-  <si>
-    <t>YNTDE000051@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>HE180052</t>
-  </si>
-  <si>
-    <t>ZNTHE000052@fpt.edu.vn</t>
+    <t xml:space="preserve">WNTHE180049@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>HS180050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XNTHS180050@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>DA180051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YNTDA180051@fpt.edu.vn  </t>
+  </si>
+  <si>
+    <t>FUDN</t>
+  </si>
+  <si>
+    <t>HA180052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNTHA180052@fpt.edu.vn  </t>
   </si>
   <si>
     <t>Le Thai</t>
@@ -480,316 +480,316 @@
     <t>HE180053</t>
   </si>
   <si>
-    <t>ANTHE000053@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180054</t>
-  </si>
-  <si>
-    <t>BNTSE000054@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180055</t>
-  </si>
-  <si>
-    <t>CNTDE000055@fpt.edu.vn</t>
+    <t>ALTHE180053@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SS180054</t>
+  </si>
+  <si>
+    <t>BLTSS180054@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180055</t>
+  </si>
+  <si>
+    <t>CLTDA180055@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180056</t>
   </si>
   <si>
-    <t>DNTSE000056@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180057</t>
-  </si>
-  <si>
-    <t>ENTCE000057@fpt.edu.vn</t>
+    <t>DLTSE180056@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>CA180057</t>
+  </si>
+  <si>
+    <t>ELTCA180057@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180058</t>
   </si>
   <si>
-    <t>FNTSE000058@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180059</t>
-  </si>
-  <si>
-    <t>GNTDE000059@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180060</t>
-  </si>
-  <si>
-    <t>HNTSE000060@fpt.edu.vn</t>
+    <t>FLTSE180058@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180059</t>
+  </si>
+  <si>
+    <t>GLTDA180059@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>QA180060</t>
+  </si>
+  <si>
+    <t>HLTQA180060@fpt.edu.vn</t>
   </si>
   <si>
     <t>CE180061</t>
   </si>
   <si>
-    <t>INTCE000061@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180062</t>
-  </si>
-  <si>
-    <t>JNTSE000062@fpt.edu.vn</t>
+    <t>ILTCE180061@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SA180062</t>
+  </si>
+  <si>
+    <t>JLTSA180062@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180063</t>
   </si>
   <si>
-    <t>KNTSE000063@fpt.edu.vn</t>
+    <t>KLTSE180063@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180064</t>
   </si>
   <si>
-    <t>LNTSE000064@fpt.edu.vn</t>
+    <t>LLTSE180064@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180065</t>
   </si>
   <si>
-    <t>MNTSE000065@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180066</t>
-  </si>
-  <si>
-    <t>NNTDE000066@fpt.edu.vn</t>
+    <t>MLTSE180065@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180066</t>
+  </si>
+  <si>
+    <t>NLTDA180066@fpt.edu.vn</t>
   </si>
   <si>
     <t>CE180067</t>
   </si>
   <si>
-    <t>ONTCE000067@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180068</t>
-  </si>
-  <si>
-    <t>PNTHE000068@fpt.edu.vn</t>
+    <t>OLTCE180067@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180068</t>
+  </si>
+  <si>
+    <t>PLTHA180068@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180069</t>
   </si>
   <si>
-    <t>KNTSE000069@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180070</t>
-  </si>
-  <si>
-    <t>RNTSE000070@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180071</t>
-  </si>
-  <si>
-    <t>SNTDE000071@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180072</t>
-  </si>
-  <si>
-    <t>TNTHE000072@fpt.edu.vn</t>
+    <t>KLTSE180069@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>QE180070</t>
+  </si>
+  <si>
+    <t>RLTQE180070@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180071</t>
+  </si>
+  <si>
+    <t>SLTDA180071@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180072</t>
+  </si>
+  <si>
+    <t>TLTHA180072@fpt.edu.vn</t>
   </si>
   <si>
     <t>CE180073</t>
   </si>
   <si>
-    <t>UNTCE000073@fpt.edu.vn</t>
+    <t>ULTCE180073@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180074</t>
   </si>
   <si>
-    <t>VNTSE000074@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180075</t>
-  </si>
-  <si>
-    <t>WNTCE000075@fpt.edu.vn</t>
+    <t>VLSE180074@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>CA180075</t>
+  </si>
+  <si>
+    <t>WLTCG180075@fpt.edu.vn</t>
   </si>
   <si>
     <t>DE180076</t>
   </si>
   <si>
-    <t>XNTDE000076@fpt.edu.vn</t>
+    <t>XLTDE180076@fpt.edu.vn</t>
   </si>
   <si>
     <t>DE180077</t>
   </si>
   <si>
-    <t>YNTDE000077@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180078</t>
-  </si>
-  <si>
-    <t>ZNTHE000078@fpt.edu.vn</t>
+    <t>YLTDE180077@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180078</t>
+  </si>
+  <si>
+    <t>ZLTHA180078@fpt.edu.vn</t>
   </si>
   <si>
     <t>Le Thi</t>
   </si>
   <si>
-    <t>DE180079</t>
-  </si>
-  <si>
-    <t>ANTDE000079@fpt.edu.vn</t>
+    <t>QE180079</t>
+  </si>
+  <si>
+    <t>ALTQE180079@fpt.edu.vn</t>
   </si>
   <si>
     <t>DE180080</t>
   </si>
   <si>
-    <t>BNTDE000080@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180081</t>
-  </si>
-  <si>
-    <t>CNTHE000081@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180082</t>
-  </si>
-  <si>
-    <t>DNTSE000082@fpt.edu.vn</t>
+    <t>BLTDE180080@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180081</t>
+  </si>
+  <si>
+    <t>CLTHA180081@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SS180082</t>
+  </si>
+  <si>
+    <t>DLTSS180082@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180083</t>
   </si>
   <si>
-    <t>ENTSE000083@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180084</t>
-  </si>
-  <si>
-    <t>FNTCE000084@fpt.edu.vn</t>
+    <t>ELTSE180083@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>CA180084</t>
+  </si>
+  <si>
+    <t>FLTCA180084@fpt.edu.vn</t>
   </si>
   <si>
     <t>DE180085</t>
   </si>
   <si>
-    <t>GNTDE000085@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180086</t>
-  </si>
-  <si>
-    <t>HNTHE000086@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180087</t>
-  </si>
-  <si>
-    <t>INTHE000087@fpt.edu.vn</t>
+    <t>GLTDE180085@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180086</t>
+  </si>
+  <si>
+    <t>HLTHA180086@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180087</t>
+  </si>
+  <si>
+    <t>ILTHA180087@fpt.edu.vn</t>
   </si>
   <si>
     <t>DE180088</t>
   </si>
   <si>
-    <t>JNTDE000088@fpt.edu.vn</t>
+    <t>JLTDE180088@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180089</t>
   </si>
   <si>
-    <t>KNTSE000089@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180090</t>
-  </si>
-  <si>
-    <t>LNTSE000090@fpt.edu.vn</t>
+    <t>KLSE180089@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>QE180090</t>
+  </si>
+  <si>
+    <t>LLTSE180090@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180091</t>
   </si>
   <si>
-    <t>MNTSE000091@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180092</t>
-  </si>
-  <si>
-    <t>NNTDE000092@fpt.edu.vn</t>
+    <t>MLTSE180091@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180092</t>
+  </si>
+  <si>
+    <t>NLTDA180092@fpt.edu.vn</t>
   </si>
   <si>
     <t>CE180093</t>
   </si>
   <si>
-    <t>ONTCE000093@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180094</t>
-  </si>
-  <si>
-    <t>PNTHE000094@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180095</t>
-  </si>
-  <si>
-    <t>KNTHE000095@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180096</t>
-  </si>
-  <si>
-    <t>RNTHE000096@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180097</t>
-  </si>
-  <si>
-    <t>SNTDE000097@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>CE180098</t>
-  </si>
-  <si>
-    <t>TNTCE000098@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE180099</t>
-  </si>
-  <si>
-    <t>UNTHE000099@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180100</t>
-  </si>
-  <si>
-    <t>VNTDE000100@fpt.edu.vn</t>
+    <t>OLTCE180093@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180094</t>
+  </si>
+  <si>
+    <t>PLTHA180094@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>QA180095</t>
+  </si>
+  <si>
+    <t>KLTQA180095@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180096</t>
+  </si>
+  <si>
+    <t>RLTHA180096@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180097</t>
+  </si>
+  <si>
+    <t>SLTDA180097@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>CA180098</t>
+  </si>
+  <si>
+    <t>TLTCA180098@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HA180099</t>
+  </si>
+  <si>
+    <t>ULTHA180099@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180100</t>
+  </si>
+  <si>
+    <t>VLTDH180100@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180101</t>
   </si>
   <si>
-    <t>WNTSE000101@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>SE180102</t>
-  </si>
-  <si>
-    <t>XNTSE000102@fpt.edu.vn</t>
+    <t>WLSE180101@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>QA180102</t>
+  </si>
+  <si>
+    <t>XLTQA180102@fpt.edu.vn</t>
   </si>
   <si>
     <t>SE180103</t>
   </si>
   <si>
-    <t>YNTSE000103@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>DE180104</t>
-  </si>
-  <si>
-    <t>ZNTDE000104@fpt.edu.vn</t>
+    <t>YLTSE180103@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>DA180104</t>
+  </si>
+  <si>
+    <t>ZLTDA180104@fpt.edu.vn</t>
   </si>
   <si>
     <t>Chương trình đạo tào</t>
@@ -904,7 +904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,11 +939,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -964,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1041,20 +1036,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,15 +1105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,10 +1119,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,46 +1451,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1472,2397 +1498,2304 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="19">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="15"/>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="15"/>
+      <c r="F34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="19">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="15"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="19">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="15"/>
+      <c r="F37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="19">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="15"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="19">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="15"/>
+      <c r="F40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="15"/>
+      <c r="F41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="19">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
+      <c r="F42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="19">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="19">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="15"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="19">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="15"/>
+      <c r="F48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="15"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="19">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="15"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="15"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="15"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="19">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="15"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="19">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="14">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="16"/>
+      <c r="F55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="19">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="16"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="19">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="16"/>
+      <c r="F57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="19">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="16"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="19">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="16"/>
+      <c r="F59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="19">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="16"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="19">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="16"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="19">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="16"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="19">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="16"/>
+      <c r="F63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="19">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="16"/>
+      <c r="F64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="19">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="14">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="16"/>
+      <c r="F65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="19">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="14">
+        <v>1</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="16"/>
+      <c r="F66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="19">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="16"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="19">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="16"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="19">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="14">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="16"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="19">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="14">
+        <v>1</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="16"/>
+      <c r="F70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="19">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="14">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="16"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="19">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="14">
+        <v>1</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="16"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="19">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="16"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="19">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="14">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="16"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="19">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="16"/>
+      <c r="F75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="19">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="16"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D77" s="19">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="16"/>
+      <c r="F77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D78" s="19">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="14">
+        <v>1</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="16"/>
+      <c r="F78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="19">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="14">
+        <v>1</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="16"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D80" s="19">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F80" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="16"/>
+      <c r="F80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="19">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="16"/>
+      <c r="F81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D82" s="19">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="16"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="19">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="16"/>
+      <c r="F83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D84" s="19">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="16"/>
+      <c r="F84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="19">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="16"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="19">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="16"/>
+      <c r="F86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="19">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="16"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="19">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="16"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="19">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="D89" s="14">
+        <v>0</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="16"/>
+      <c r="F89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="19">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="16"/>
+      <c r="F90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="18"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="19">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="16"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D92" s="19">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="16"/>
+      <c r="F92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="19">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="16"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="19">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="16"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="19">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="16"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D96" s="19">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F96" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="16"/>
+      <c r="F96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D97" s="19">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="D97" s="14">
+        <v>0</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F97" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="16"/>
+      <c r="F97" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D98" s="19">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="16"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D99" s="19">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F99" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="16"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="19">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="D100" s="14">
+        <v>0</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="16"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D101" s="19">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="14">
+        <v>0</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F101" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="16"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="19">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="16"/>
+      <c r="F102" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D103" s="19">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="D103" s="14">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F103" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="16"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D104" s="19">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F104" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="16"/>
+      <c r="F104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D105" s="19">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="D105" s="14">
+        <v>0</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="16"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H105" xr:uid="{D391F802-DEFB-47ED-977B-6B4E9EA7ACB8}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{828D6556-F6AA-450C-9239-0D4A87995E49}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5380D695-8172-4691-B54D-970F05F8A7D0}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{44CED8FC-1DAF-4F6B-B969-971DEF82685B}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B41E4049-E98C-45A1-9F82-644544175C49}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{B239FEB1-3ED1-47ED-BCA3-00AABB89B9F4}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{1BE2B8C7-46E0-4BC1-BAEB-4A0390B0734C}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{ECE8E0AF-5781-4825-965E-EEB48E2685B2}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{339A42B5-B331-4080-B3A3-E4E91350E06A}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{8B11F3E4-2924-4EC4-A1A8-4B10E8DB48F1}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{0A476646-A173-420B-9E5A-7AF7F9C7ED0D}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{8355C068-ABEE-4599-BE99-860BC33133EA}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{ECAF8AEB-11DC-4E79-A466-0A90133BB5BE}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{7ED90098-632B-4A14-9557-4E41B86394BD}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{BE4B9515-348F-461E-8FBC-19BE1648B642}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{EAC28F37-41DF-4DE1-AD59-EA57F45A9075}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{BA3B3396-7951-4AF8-A011-7ABDFF7AE48A}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{9B98E675-3C4C-4CFF-9AE8-59096775588F}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{55782563-9D62-457C-9790-3DD03CB8DBE2}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{B8A51B8D-E74C-49FC-88CC-B8AF8879DEC5}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{3EA30B7A-71EE-4D69-9A98-A3AD07F4190B}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{54F8F796-CF90-41E8-A64D-27C4968798FF}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{77C94D14-25A9-462A-B0B4-1CF87F424E9A}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{391AABBE-90F5-47C7-B0E9-00DEFEDDA65A}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{76BD0DC1-887D-4CA9-87B3-20D20C367191}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{3830BBB9-737A-412B-A536-FCE1CB99F61E}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{0293EA3D-CABE-4D1A-AAFB-4899A32E5BA0}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{C3D52C18-10DE-43AC-99E0-17DF0F501D3D}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{B03FF932-F440-4F34-8A1A-464132AB69DC}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{62E0EE68-D540-4211-A895-252CB0D8E478}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{8081258F-717F-469C-B170-0928C8BBB244}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{1432EB19-6618-4BA2-AFF9-B25FE94A0629}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{3179AD9A-6C90-4908-A245-8BCCA0983C43}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{0C7FF28A-720E-4F15-A63A-E3E8F34D5C22}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{23064507-324D-4ECC-B759-E87D12433D4F}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{AF2CF9B5-16E6-40DE-9791-ECE22BFDBB97}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{646A3C1F-34DB-4064-BB71-FFF6B0F730CB}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{03E87589-D577-4AED-8D5F-B53CC498AA45}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{085B7A6B-3783-4CF3-9E59-400F8BE2E9DA}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{2E05399C-8486-4CB4-946B-DEF236F18475}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{C0F93596-F0D5-423B-95B5-3ADDD7A0730B}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{F4B91C1B-BC3B-41A9-9883-1E9A0D495756}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{B6E83A57-239B-4081-83E4-F91A62ED260E}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{B5FBD8E5-3B5B-4E2F-96A8-DDF4E38B8D83}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{8BB03B8A-5645-4C30-806A-013DFCC192E6}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{17286625-A192-491C-B4A0-AC3867D23557}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{CBB97D59-BA0F-4F4D-8E61-6A139D5B7B96}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{1CAF0BEB-4B3E-4AC3-988D-983FCD8B844F}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{700E8529-D4D8-4206-83C3-85A5106CB78B}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{DF727EB0-153F-4C8E-8B18-AA4EB97AA2B3}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{9ED0099E-EB97-4AF6-A042-87702C0858B7}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{B60DD6B3-EACC-46E7-AEAF-43A47795C8B6}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{60D1E83C-DC05-4EFE-AC65-C32EBD96C8BD}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{4DF99688-41C0-4822-B4F3-74D9351D68F9}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{63E2D636-1447-4631-8CCF-D0F425B5BC0D}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{14045AD0-C74D-4358-82CE-606058B85E1F}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{CD3653BE-E6DC-4574-93B5-976AAB85255A}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{CF29377D-F31B-49D6-99B9-CD2CF8E351AF}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{9411CCAA-6E29-4E06-B86F-F9255E0FAD55}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{8CEC66E5-D3DD-404B-A818-BA3D07C3B809}"/>
-    <hyperlink ref="E61" r:id="rId60" xr:uid="{06A0A009-2068-4E8B-98DE-00198B8E566D}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{0B83DA25-2FE3-48A9-B732-13B93FD5E0CB}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{42EB99CA-FF99-4AA7-A610-D496794EA81C}"/>
-    <hyperlink ref="E64" r:id="rId63" xr:uid="{224932BC-651F-49F5-A02E-EC58612F9AC8}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{CD27FF10-E1E5-4741-9C13-DE704BC331F2}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{5FDB1563-CB81-4109-8E1E-040890658CB9}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{8612B31A-BB1D-4CB8-90DF-AE52593B4F4A}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{4B5CC2F1-3C09-41A9-BAD0-6E9085E0D903}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{FDDEC7D9-7D0D-4BC4-B382-00964C652505}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{3892D47F-49F2-4E3F-99A8-66D370D501BA}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{48E6DA4D-BC13-4CA2-AD5D-A52BAA31DE59}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{754FF958-BF81-4CB1-BAAA-AA556CDCB258}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{00C2C48E-F832-4A94-B668-54BEDE711968}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{C7A2F8B1-AE02-45FF-8EC6-B580281DA9F5}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{5ED7E1EA-2E54-4E7D-A161-87E58B942C64}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{FB231BA5-A441-45EC-B9FE-DDDEF0305B49}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{7834DB87-6AF2-4B7D-9D10-E6663F3DD11D}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{EC5064F2-4912-44E8-916D-8238C1F172FB}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{498CE680-5644-4E75-A21A-B9B61DE24255}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{37BE692E-E2F6-47A6-A32B-441637235D4E}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{A24E6B12-5ED0-4797-899D-BDFCD8E84AE6}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{6AAFFDCC-D4D5-42A8-99A0-892DC06D162C}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{236796AB-2248-4435-839C-D5505BAF8808}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{E571510A-F904-48A8-8264-D257E62A1C51}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{BA710844-157C-40E5-B6E0-2AE8545F06FA}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{122058E6-2B23-4F4D-A706-FCED722C084E}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{457A5FBC-38D5-4F44-A7BF-9B5CB9B14484}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{1BBEA0C1-7E63-40DE-99B2-A84B15FED61A}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{04921477-6154-4EE5-AB63-031050A9A0AD}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{6FE6179F-B2E3-4D19-AFEF-2A6BB7503C07}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{B15E5373-1A2D-40D4-9F33-94C204F18228}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{5ED11BA8-CFFD-45E9-A610-5666AFBDA91F}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{F715DE64-C244-4E3A-8B8D-9800A64C4CDA}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{2F2773B0-4F80-4C53-964D-E3E53B99DD30}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{F59D5696-2B0E-4967-A435-735064A3C98B}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{A3407CEF-2266-48AB-A870-8F8C439A35E1}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{9B404E75-C69A-44F0-8A50-F0B6208F01C7}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{3F5D7A55-BC2B-4142-B964-E27E44FC016D}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{442B6F71-4383-4DEE-92D9-7EE659379FE1}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{7097283E-092A-4A2B-8319-A0288D6BAE44}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{BA77E784-E8AB-4D2F-A6D1-AE8E2614F59B}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{0E6FD73C-C8B6-40CE-833C-CF749FFEC7C0}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{46AD6B2D-C309-4CB7-84D9-3CDED3073708}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{CE190061-1A20-4BF6-B835-960B30B39949}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{896B53C5-BA06-41C2-AF81-228F639FAC77}"/>
+    <hyperlink ref="E53" r:id="rId1" xr:uid="{7FD0C3B5-ED41-42C9-B655-6F3AB1B13D77}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{55955B14-7627-450B-A9C5-DB0A0B53C968}"/>
+    <hyperlink ref="E48" r:id="rId3" xr:uid="{0EB68699-030B-4304-8860-76098685824F}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{AA2EFCD7-CF42-4D8B-83FD-ED8EBD87B572}"/>
+    <hyperlink ref="E103" r:id="rId5" xr:uid="{5B6A1C89-8E3F-4D23-9CD2-322ECA2E2BD9}"/>
+    <hyperlink ref="E80" r:id="rId6" xr:uid="{85BC9D9B-B9CC-4F1F-9CE4-6B0A93083E2F}"/>
+    <hyperlink ref="E96" r:id="rId7" xr:uid="{A3F4B768-BA99-40C6-B4AA-24E397FC79C1}"/>
+    <hyperlink ref="E34" r:id="rId8" xr:uid="{30170A60-04FB-4ED5-95FF-460B8E2E4AFE}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{1641B316-5055-4856-87A5-6B0A870F39C2}"/>
+    <hyperlink ref="E61" r:id="rId10" xr:uid="{5585B0F5-EA1D-46E7-88B2-28583F6BD18E}"/>
+    <hyperlink ref="E71" r:id="rId11" xr:uid="{46DDE2FB-89BF-465E-B92A-C59EC7C2EC65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3882,120 +3815,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100.9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="230.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="100.9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="403.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="302.45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.45">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="158.44999999999999">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>280</v>
       </c>
     </row>
